--- a/Assets/StreamingAssets/levels/Level2.xlsx
+++ b/Assets/StreamingAssets/levels/Level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF0E5C-244C-4E1A-B29A-5D8DA6B8532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DAAB69-51D7-4F0F-92FD-A03269A3E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="2124" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="12456" yWindow="4332" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
